--- a/endpoints/kettle/admin/quantitative_data/resources/origin/MM351.xlsx
+++ b/endpoints/kettle/admin/quantitative_data/resources/origin/MM351.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ComEuropea\OSHA\OSHD15 - ESENER migration\03 - Data\Datos definitivos\ESENER 1\20150714_tables_employee_participation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\biserver-ce\pentaho-solutions\system\osha-dvt-esener\endpoints\kettle\admin\quantitative_data\resources\origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>BE</t>
   </si>
   <si>
-    <t>BU</t>
-  </si>
-  <si>
     <t>CY</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>MM351</t>
+  </si>
+  <si>
+    <t>BG</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -489,43 +489,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -547,19 +547,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B88"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +911,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -981,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1016,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1051,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1086,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1121,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1156,7 +1156,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1191,7 +1191,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -1226,7 +1226,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1261,7 +1261,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -1296,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -1331,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -1366,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
@@ -1401,7 +1401,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="26" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="32" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="35" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="44" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="47" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="52" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2693,10 +2693,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="58" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="64" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -3078,10 +3078,10 @@
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="67" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
@@ -3183,10 +3183,10 @@
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>10</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>10</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
@@ -3358,10 +3358,10 @@
     </row>
     <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>11</v>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="76" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>10</v>
@@ -3533,10 +3533,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="79" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -3603,10 +3603,10 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="82" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>10</v>
@@ -3743,10 +3743,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="85" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>10</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
@@ -3883,10 +3883,10 @@
     </row>
     <row r="88" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>12</v>
